--- a/files/bdPipePhases.xlsx
+++ b/files/bdPipePhases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,10 +471,15 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Limpeza e vistoria</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Concluído</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Reserva cancelada</t>
         </is>
@@ -486,47 +491,52 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>301509734</t>
+          <t>301576419</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>310000158</t>
+          <t>310448752</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>310199627</t>
+          <t>310448753</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>310000159</t>
+          <t>310448754</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>310199635</t>
+          <t>310448755</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>310000306</t>
+          <t>310448756</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>310199636</t>
+          <t>310448757</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>310000160</t>
+          <t>310448758</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>310199637</t>
+          <t>310448759</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>310448760</t>
         </is>
       </c>
     </row>
@@ -569,14 +579,781 @@
           <t>310199636</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>310000160</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>310199637</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>301573443</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>310428543</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>310428544</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>310428545</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>310428546</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>310428547</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>310428548</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>310428549</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>310428550</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>310428551</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>301575966</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>310445666</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>310445667</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>310445668</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>310445669</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>310445670</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>310445671</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>310445672</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>310445673</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>310445674</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>301608702</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>310662846</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>310662847</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>310662848</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>310662849</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>310662850</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>310662851</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>310662854</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>310662852</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>310662853</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>301608870</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>310664003</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>310664004</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>310664005</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>310664006</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>310664007</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>310664008</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>310664011</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>310664009</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>310664010</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>301614101</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>310698791</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>310698792</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>310698793</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>310698794</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>310698795</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>310698796</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>310698799</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>310698797</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>310698798</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>301622693</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>310756162</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>310756163</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>310756164</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>310756165</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>310756166</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>310756167</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>310756170</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>310756168</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>310756169</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>301679033</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>311134374</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>311134375</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>311134376</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>311134377</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>311134378</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>311134379</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>311134382</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>311134380</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>311134381</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>301824091</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>312074760</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>312074761</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>312074762</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>312074763</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>312074764</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>312074765</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>312074768</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>312074766</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>312074767</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>301804310</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>311948090</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>311948091</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>311948092</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>311948093</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>311948094</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>311948095</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>311948098</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>311948096</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>311948097</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>301846507</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>312215642</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>312215643</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>312215644</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>312215645</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>312215646</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>312215647</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>312215650</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>312215648</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>312215649</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>301967476</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>312920732</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>312920733</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>312920734</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>312920735</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>312920736</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>312920737</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>312920740</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>312920738</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>312920739</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>301969563</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>312932573</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>312932574</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>312932575</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>312932576</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>312932577</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>312932578</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>312932581</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>312932579</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>312932580</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>301509734</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>310000158</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>310199627</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>310000159</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>310199635</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>310000306</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>310199636</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>310000160</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>310199637</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>302286746</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>314531734</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>314531735</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>314531736</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>314531737</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>314531738</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>314531739</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>314531742</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>314531740</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>314531741</t>
         </is>
       </c>
     </row>

--- a/files/bdPipePhases.xlsx
+++ b/files/bdPipePhases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1357,6 +1357,57 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>301509734</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>310000158</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>310199627</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>310000159</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>310199635</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>310000306</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>310199636</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>310000160</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>310199637</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
